--- a/excels/Mba_Standard_Reports.xlsx
+++ b/excels/Mba_Standard_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15360" windowHeight="5655" tabRatio="779" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655" tabRatio="779" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Compen_by_Professional_Exp" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:H16"/>
 </workbook>
 </file>
 
@@ -1283,7 +1284,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1383,7 +1384,7 @@
         <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -1424,7 +1425,7 @@
         <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -1465,7 +1466,7 @@
         <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -1506,7 +1507,7 @@
         <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -1547,7 +1548,7 @@
         <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -1588,7 +1589,7 @@
         <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -1629,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -1670,7 +1671,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -1711,7 +1712,7 @@
         <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -1754,7 +1755,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:M11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1854,7 +1855,7 @@
         <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -1895,7 +1896,7 @@
         <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -1936,7 +1937,7 @@
         <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -1977,7 +1978,7 @@
         <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -2018,7 +2019,7 @@
         <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -2059,7 +2060,7 @@
         <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -2100,7 +2101,7 @@
         <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -2141,7 +2142,7 @@
         <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -2182,7 +2183,7 @@
         <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -2225,7 +2226,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2325,7 +2326,7 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -2366,7 +2367,7 @@
         <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -2407,7 +2408,7 @@
         <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -2448,7 +2449,7 @@
         <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -2489,7 +2490,7 @@
         <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -2530,7 +2531,7 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -2571,7 +2572,7 @@
         <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -2612,7 +2613,7 @@
         <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -2653,7 +2654,7 @@
         <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -2695,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2799,7 +2800,7 @@
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -2840,7 +2841,7 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -2881,7 +2882,7 @@
         <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -2922,7 +2923,7 @@
         <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -2963,7 +2964,7 @@
         <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -3004,7 +3005,7 @@
         <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -3045,7 +3046,7 @@
         <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -3086,7 +3087,7 @@
         <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -3127,7 +3128,7 @@
         <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -3170,7 +3171,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3280,7 +3281,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -3321,7 +3322,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -3362,7 +3363,7 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -3403,7 +3404,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -3444,7 +3445,7 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -3485,7 +3486,7 @@
         <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -3526,7 +3527,7 @@
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -3567,7 +3568,7 @@
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -3608,7 +3609,7 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -3651,7 +3652,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3757,7 +3758,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -3798,7 +3799,7 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -3839,7 +3840,7 @@
         <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -3880,7 +3881,7 @@
         <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -3921,7 +3922,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -3962,7 +3963,7 @@
         <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -4003,7 +4004,7 @@
         <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -4044,7 +4045,7 @@
         <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -4085,7 +4086,7 @@
         <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -4128,7 +4129,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4233,7 +4234,7 @@
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -4274,7 +4275,7 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -4315,7 +4316,7 @@
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -4356,7 +4357,7 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -4397,7 +4398,7 @@
         <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -4438,7 +4439,7 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -4479,7 +4480,7 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -4520,7 +4521,7 @@
         <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -4561,7 +4562,7 @@
         <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -4603,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4707,7 +4708,7 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -4748,7 +4749,7 @@
         <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -4789,7 +4790,7 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -4830,7 +4831,7 @@
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -4871,7 +4872,7 @@
         <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -4912,7 +4913,7 @@
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -4953,7 +4954,7 @@
         <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -4994,7 +4995,7 @@
         <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -5035,7 +5036,7 @@
         <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -5078,7 +5079,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5179,7 +5180,7 @@
         <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -5220,7 +5221,7 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -5261,7 +5262,7 @@
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -5302,7 +5303,7 @@
         <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -5343,7 +5344,7 @@
         <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -5384,7 +5385,7 @@
         <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -5425,7 +5426,7 @@
         <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -5466,7 +5467,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -5507,7 +5508,7 @@
         <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -5830,7 +5831,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5931,7 +5932,7 @@
         <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -5972,7 +5973,7 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -6013,7 +6014,7 @@
         <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -6054,7 +6055,7 @@
         <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -6095,7 +6096,7 @@
         <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -6136,7 +6137,7 @@
         <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -6177,7 +6178,7 @@
         <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -6218,7 +6219,7 @@
         <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -6259,7 +6260,7 @@
         <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -6302,7 +6303,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:M11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6403,7 +6404,7 @@
         <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -6444,7 +6445,7 @@
         <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -6485,7 +6486,7 @@
         <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -6526,7 +6527,7 @@
         <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -6567,7 +6568,7 @@
         <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -6608,7 +6609,7 @@
         <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -6649,7 +6650,7 @@
         <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -6690,7 +6691,7 @@
         <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -6731,7 +6732,7 @@
         <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>

--- a/excels/Mba_Standard_Reports.xlsx
+++ b/excels/Mba_Standard_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655" tabRatio="779" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15135" windowHeight="5955" tabRatio="779" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <sheet name="Compen_by_Professional_Exp" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:H16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="202">
   <si>
     <t>TCID</t>
   </si>
@@ -595,6 +594,45 @@
   </si>
   <si>
     <t>Auto_Data_MBACSEA_Table_4G_10</t>
+  </si>
+  <si>
+    <t>Full Academic Year</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_1</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_2</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_3</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_4</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_5</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_6</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_7</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_8</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_9</t>
+  </si>
+  <si>
+    <t>Auto_Data_MBACSEA_Table_4A_10</t>
+  </si>
+  <si>
+    <t>T3_TH2_TCN</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1086,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1262,19 +1300,474 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1283,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1363,8 +1856,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1404,8 +1897,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -1445,8 +1938,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -1486,8 +1979,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -1527,8 +2020,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -1568,8 +2061,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1732,8 +2225,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1754,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1834,8 +2327,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1875,8 +2368,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -1916,8 +2409,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -1957,8 +2450,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -1998,8 +2491,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -2039,8 +2532,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -2203,8 +2696,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -2225,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2305,8 +2798,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -2346,8 +2839,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -2387,8 +2880,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -2428,8 +2921,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -2469,8 +2962,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -2510,8 +3003,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -2674,8 +3167,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -2696,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2705,12 +3198,12 @@
     <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="39.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2779,8 +3272,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -2820,8 +3313,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -2861,8 +3354,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -2902,8 +3395,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -2943,8 +3436,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -2984,8 +3477,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -3148,8 +3641,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -3170,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3260,8 +3753,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -3281,7 +3774,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -3301,8 +3794,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -3322,7 +3815,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -3342,8 +3835,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -3363,7 +3856,7 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -3383,8 +3876,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -3404,7 +3897,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -3424,8 +3917,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -3445,7 +3938,7 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -3465,8 +3958,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -3486,7 +3979,7 @@
         <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -3527,7 +4020,7 @@
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -3568,7 +4061,7 @@
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -3609,7 +4102,7 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -3629,8 +4122,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -3652,7 +4145,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3738,7 +4231,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -3779,7 +4272,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -3820,7 +4313,7 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -3861,7 +4354,7 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -3943,7 +4436,7 @@
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -3984,7 +4477,7 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K8" t="s">
         <v>98</v>
@@ -4025,7 +4518,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K9" t="s">
         <v>98</v>
@@ -4066,7 +4559,7 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K10" t="s">
         <v>98</v>
@@ -4107,7 +4600,7 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -4128,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4213,8 +4706,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -4234,7 +4727,7 @@
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -4254,8 +4747,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -4275,7 +4768,7 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
@@ -4295,8 +4788,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -4316,7 +4809,7 @@
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -4336,8 +4829,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -4357,7 +4850,7 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -4377,8 +4870,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -4398,7 +4891,7 @@
         <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -4418,8 +4911,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -4439,7 +4932,7 @@
         <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -4480,7 +4973,7 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -4521,7 +5014,7 @@
         <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -4562,7 +5055,7 @@
         <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -4582,8 +5075,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -4604,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4687,8 +5180,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -4728,8 +5221,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -4769,8 +5262,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -4810,8 +5303,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -4851,8 +5344,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -4892,8 +5385,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -5056,8 +5549,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -5078,8 +5571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5159,8 +5652,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -5200,8 +5693,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -5241,8 +5734,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -5282,8 +5775,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -5323,8 +5816,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -5364,8 +5857,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -5528,8 +6021,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -5830,8 +6323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5911,8 +6404,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -5952,8 +6445,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -5993,8 +6486,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -6034,8 +6527,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -6075,8 +6568,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -6116,8 +6609,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -6280,8 +6773,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -6302,8 +6795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6383,8 +6876,8 @@
       <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>98</v>
+      <c r="J2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -6424,8 +6917,8 @@
       <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
+      <c r="J3" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -6465,8 +6958,8 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
+      <c r="J4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -6506,8 +6999,8 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
-        <v>98</v>
+      <c r="J5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
@@ -6547,8 +7040,8 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -6588,8 +7081,8 @@
       <c r="I7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
+      <c r="J7" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -6752,8 +7245,8 @@
       <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>98</v>
+      <c r="J11" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
